--- a/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1643,11 +1643,21 @@
       <c r="J7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="K7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
       <c r="R7" s="33"/>
@@ -1681,7 +1691,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1695,12 +1705,22 @@
       <c r="J8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="K8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="39"/>
       <c r="Q8" s="40"/>
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
@@ -1733,7 +1753,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>21</v>
@@ -1747,11 +1767,21 @@
       <c r="J9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
+      <c r="K9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
@@ -1781,11 +1811,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1799,11 +1829,21 @@
       <c r="J10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="K10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P10" s="40"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
@@ -1833,11 +1873,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>20</v>
@@ -1851,11 +1891,21 @@
       <c r="J11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="K11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -1889,7 +1939,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1903,11 +1953,21 @@
       <c r="J12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
+      <c r="K12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
@@ -1937,11 +1997,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -1955,11 +2015,21 @@
       <c r="J13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="K13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
@@ -1989,11 +2059,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2007,11 +2077,21 @@
       <c r="J14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="K14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
@@ -2041,11 +2121,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>21</v>
@@ -2059,11 +2139,21 @@
       <c r="J15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="K15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="40"/>
@@ -2097,7 +2187,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2111,11 +2201,21 @@
       <c r="J16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="K16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
@@ -2145,11 +2245,11 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2163,11 +2263,21 @@
       <c r="J17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="K17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -2201,7 +2311,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2215,11 +2325,21 @@
       <c r="J18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="K18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -2249,11 +2369,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2267,11 +2387,21 @@
       <c r="J19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="K19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -2301,11 +2431,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2319,11 +2449,21 @@
       <c r="J20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="K20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -2357,7 +2497,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>20</v>
@@ -2371,11 +2511,21 @@
       <c r="J21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="K21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -2409,7 +2559,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2423,11 +2573,21 @@
       <c r="J22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+      <c r="K22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -2457,11 +2617,11 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2475,11 +2635,21 @@
       <c r="J23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
+      <c r="K23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
@@ -2509,11 +2679,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2527,11 +2697,21 @@
       <c r="J24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
+      <c r="K24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P24" s="40"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -2565,7 +2745,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2579,11 +2759,21 @@
       <c r="J25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="K25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -2613,11 +2803,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2631,11 +2821,21 @@
       <c r="J26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+      <c r="K26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P26" s="40"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -2665,7 +2865,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
@@ -2683,11 +2883,21 @@
       <c r="J27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -2717,11 +2927,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2735,11 +2945,21 @@
       <c r="J28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
+      <c r="K28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P28" s="40"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -2769,11 +2989,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -2787,11 +3007,21 @@
       <c r="J29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
+      <c r="K29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
@@ -2821,11 +3051,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -2839,11 +3069,21 @@
       <c r="J30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
+      <c r="K30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
@@ -2877,7 +3117,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -2891,11 +3131,21 @@
       <c r="J31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="K31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -2929,7 +3179,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -2943,11 +3193,21 @@
       <c r="J32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
       <c r="R32" s="40"/>
@@ -2981,7 +3241,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -2995,11 +3255,21 @@
       <c r="J33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="K33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
       <c r="R33" s="40"/>
@@ -3029,11 +3299,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>21</v>
@@ -3047,11 +3317,21 @@
       <c r="J34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
+      <c r="K34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P34" s="40"/>
       <c r="Q34" s="40"/>
       <c r="R34" s="40"/>
@@ -3085,7 +3365,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3099,11 +3379,21 @@
       <c r="J35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
+      <c r="K35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P35" s="40"/>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
@@ -3137,7 +3427,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3151,11 +3441,21 @@
       <c r="J36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
+      <c r="K36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P36" s="40"/>
       <c r="Q36" s="40"/>
       <c r="R36" s="40"/>
@@ -3185,11 +3485,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3203,11 +3503,21 @@
       <c r="J37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
+      <c r="K37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P37" s="40"/>
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
@@ -3241,7 +3551,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3255,11 +3565,21 @@
       <c r="J38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
+      <c r="K38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
       <c r="R38" s="40"/>
@@ -3289,11 +3609,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>20</v>
@@ -3307,11 +3627,21 @@
       <c r="J39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
+      <c r="K39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="40"/>
       <c r="R39" s="40"/>
@@ -3345,7 +3675,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3359,11 +3689,21 @@
       <c r="J40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
+      <c r="K40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P40" s="40"/>
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
@@ -3397,7 +3737,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>20</v>
@@ -3411,11 +3751,21 @@
       <c r="J41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
+      <c r="K41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
@@ -3449,7 +3799,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -3463,11 +3813,21 @@
       <c r="J42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
+      <c r="K42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
@@ -3501,7 +3861,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3515,11 +3875,21 @@
       <c r="J43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
+      <c r="K43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
@@ -3549,11 +3919,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -3567,11 +3937,21 @@
       <c r="J44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
+      <c r="K44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
@@ -3605,7 +3985,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -3619,11 +3999,21 @@
       <c r="J45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
+      <c r="K45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
@@ -3653,11 +4043,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>21</v>
@@ -3671,11 +4061,21 @@
       <c r="J46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
+      <c r="K46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P46" s="40"/>
       <c r="Q46" s="40"/>
       <c r="R46" s="40"/>
@@ -3705,11 +4105,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -3723,11 +4123,21 @@
       <c r="J47" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
+      <c r="K47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
@@ -3757,11 +4167,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -3775,11 +4185,21 @@
       <c r="J48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
+      <c r="K48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P48" s="40"/>
       <c r="Q48" s="40"/>
       <c r="R48" s="40"/>
@@ -3809,11 +4229,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>21</v>
@@ -3827,11 +4247,21 @@
       <c r="J49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
+      <c r="K49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
@@ -3865,7 +4295,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>21</v>
@@ -3879,11 +4309,21 @@
       <c r="J50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
+      <c r="K50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
@@ -3913,11 +4353,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -3931,11 +4371,21 @@
       <c r="J51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
+      <c r="K51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
@@ -3965,11 +4415,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -3983,11 +4433,21 @@
       <c r="J52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
+      <c r="K52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P52" s="40"/>
       <c r="Q52" s="40"/>
       <c r="R52" s="40"/>
@@ -4017,11 +4477,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -4035,11 +4495,21 @@
       <c r="J53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
+      <c r="K53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P53" s="40"/>
       <c r="Q53" s="40"/>
       <c r="R53" s="40"/>
@@ -4073,7 +4543,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4087,11 +4557,21 @@
       <c r="J54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
+      <c r="K54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P54" s="40"/>
       <c r="Q54" s="40"/>
       <c r="R54" s="40"/>
@@ -4121,11 +4601,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -4139,11 +4619,21 @@
       <c r="J55" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
+      <c r="K55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P55" s="40"/>
       <c r="Q55" s="40"/>
       <c r="R55" s="40"/>
@@ -4173,11 +4663,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4191,11 +4681,21 @@
       <c r="J56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
+      <c r="K56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P56" s="40"/>
       <c r="Q56" s="40"/>
       <c r="R56" s="40"/>
@@ -4225,11 +4725,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -4243,11 +4743,21 @@
       <c r="J57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
+      <c r="K57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P57" s="40"/>
       <c r="Q57" s="40"/>
       <c r="R57" s="40"/>
@@ -4281,7 +4791,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -4295,11 +4805,21 @@
       <c r="J58" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
+      <c r="K58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P58" s="40"/>
       <c r="Q58" s="40"/>
       <c r="R58" s="40"/>
@@ -4333,7 +4853,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4347,11 +4867,21 @@
       <c r="J59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
+      <c r="K59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P59" s="40"/>
       <c r="Q59" s="40"/>
       <c r="R59" s="40"/>
@@ -4381,11 +4911,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -4399,11 +4929,21 @@
       <c r="J60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
+      <c r="K60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P60" s="40"/>
       <c r="Q60" s="40"/>
       <c r="R60" s="40"/>
@@ -4437,7 +4977,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -4451,11 +4991,21 @@
       <c r="J61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
+      <c r="K61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P61" s="40"/>
       <c r="Q61" s="40"/>
       <c r="R61" s="40"/>
@@ -4489,7 +5039,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4503,11 +5053,21 @@
       <c r="J62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
+      <c r="K62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P62" s="40"/>
       <c r="Q62" s="40"/>
       <c r="R62" s="40"/>
@@ -4541,7 +5101,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -4555,11 +5115,21 @@
       <c r="J63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
+      <c r="K63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P63" s="40"/>
       <c r="Q63" s="40"/>
       <c r="R63" s="40"/>
@@ -4593,7 +5163,7 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>20</v>
@@ -4607,11 +5177,21 @@
       <c r="J64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
+      <c r="K64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P64" s="40"/>
       <c r="Q64" s="40"/>
       <c r="R64" s="40"/>
@@ -4645,7 +5225,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -4659,11 +5239,21 @@
       <c r="J65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
+      <c r="K65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P65" s="40"/>
       <c r="Q65" s="40"/>
       <c r="R65" s="40"/>
@@ -4693,11 +5283,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4711,11 +5301,21 @@
       <c r="J66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
+      <c r="K66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P66" s="40"/>
       <c r="Q66" s="40"/>
       <c r="R66" s="40"/>
@@ -4745,11 +5345,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -4763,11 +5363,21 @@
       <c r="J67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
+      <c r="K67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P67" s="40"/>
       <c r="Q67" s="40"/>
       <c r="R67" s="40"/>
@@ -4797,11 +5407,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -4815,11 +5425,21 @@
       <c r="J68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
+      <c r="K68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
@@ -4849,11 +5469,11 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>21</v>
@@ -4867,11 +5487,21 @@
       <c r="J69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
+      <c r="K69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
       <c r="R69" s="40"/>
@@ -4905,7 +5535,7 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -4919,11 +5549,21 @@
       <c r="J70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
+      <c r="K70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P70" s="40"/>
       <c r="Q70" s="40"/>
       <c r="R70" s="40"/>
@@ -4953,11 +5593,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>21</v>
@@ -4971,11 +5611,21 @@
       <c r="J71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
+      <c r="K71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P71" s="40"/>
       <c r="Q71" s="40"/>
       <c r="R71" s="40"/>
@@ -5005,11 +5655,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -5023,11 +5673,21 @@
       <c r="J72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
+      <c r="K72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P72" s="40"/>
       <c r="Q72" s="40"/>
       <c r="R72" s="40"/>
@@ -5057,11 +5717,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -5075,11 +5735,21 @@
       <c r="J73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
+      <c r="K73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P73" s="40"/>
       <c r="Q73" s="40"/>
       <c r="R73" s="40"/>
@@ -5109,11 +5779,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -5127,11 +5797,21 @@
       <c r="J74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
+      <c r="K74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P74" s="40"/>
       <c r="Q74" s="40"/>
       <c r="R74" s="40"/>
@@ -5161,11 +5841,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>20</v>
@@ -5179,11 +5859,21 @@
       <c r="J75" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
+      <c r="K75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P75" s="40"/>
       <c r="Q75" s="40"/>
       <c r="R75" s="40"/>
@@ -5213,11 +5903,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -5231,11 +5921,21 @@
       <c r="J76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
+      <c r="K76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P76" s="40"/>
       <c r="Q76" s="40"/>
       <c r="R76" s="40"/>
@@ -5265,11 +5965,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>21</v>
@@ -5283,11 +5983,21 @@
       <c r="J77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
+      <c r="K77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P77" s="40"/>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
@@ -5317,11 +6027,11 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>20</v>
@@ -5335,11 +6045,21 @@
       <c r="J78" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
+      <c r="K78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P78" s="40"/>
       <c r="Q78" s="40"/>
       <c r="R78" s="40"/>
@@ -5369,11 +6089,11 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>20</v>
@@ -5387,11 +6107,21 @@
       <c r="J79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
+      <c r="K79" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P79" s="40"/>
       <c r="Q79" s="40"/>
       <c r="R79" s="40"/>
@@ -5425,7 +6155,7 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>20</v>
@@ -5439,11 +6169,21 @@
       <c r="J80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
+      <c r="K80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P80" s="40"/>
       <c r="Q80" s="40"/>
       <c r="R80" s="40"/>
@@ -5473,11 +6213,11 @@
       </c>
       <c r="E81" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>20</v>
@@ -5491,11 +6231,21 @@
       <c r="J81" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
+      <c r="K81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="P81" s="40"/>
       <c r="Q81" s="40"/>
       <c r="R81" s="40"/>
@@ -5530,8 +6280,8 @@
       <c r="I82" s="40"/>
       <c r="J82" s="40"/>
       <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
       <c r="N82" s="40"/>
       <c r="O82" s="40"/>
       <c r="P82" s="40"/>

--- a/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1223,8 +1223,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="6.0" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="D7" sqref="D7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1629,7 +1631,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1658,8 +1660,12 @@
       <c r="O7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
@@ -1687,11 +1693,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1720,9 +1726,13 @@
       <c r="O8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="P8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="39"/>
       <c r="S8" s="40"/>
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
@@ -1749,11 +1759,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>21</v>
@@ -1782,8 +1792,12 @@
       <c r="O9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="P9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
       <c r="T9" s="40"/>
@@ -1811,11 +1825,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1844,8 +1858,12 @@
       <c r="O10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="P10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
@@ -1877,7 +1895,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>20</v>
@@ -1906,8 +1924,12 @@
       <c r="O11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="P11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
       <c r="T11" s="40"/>
@@ -1939,7 +1961,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1968,8 +1990,12 @@
       <c r="O12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="P12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="40"/>
@@ -1997,11 +2023,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2030,8 +2056,12 @@
       <c r="O13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="P13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -2059,11 +2089,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2092,8 +2122,12 @@
       <c r="O14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
+      <c r="P14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
@@ -2121,11 +2155,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>21</v>
@@ -2154,8 +2188,12 @@
       <c r="O15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="P15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
@@ -2183,11 +2221,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2216,8 +2254,12 @@
       <c r="O16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
+      <c r="P16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R16" s="40"/>
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
@@ -2249,7 +2291,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2278,8 +2320,12 @@
       <c r="O17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="P17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
@@ -2307,11 +2353,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2340,8 +2386,12 @@
       <c r="O18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="P18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
@@ -2369,11 +2419,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2402,8 +2452,12 @@
       <c r="O19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="P19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
       <c r="T19" s="40"/>
@@ -2435,7 +2489,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2464,8 +2518,12 @@
       <c r="O20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="P20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
       <c r="T20" s="40"/>
@@ -2497,7 +2555,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>20</v>
@@ -2526,8 +2584,12 @@
       <c r="O21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="P21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
       <c r="T21" s="40"/>
@@ -2559,7 +2621,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2588,8 +2650,12 @@
       <c r="O22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
+      <c r="P22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
       <c r="T22" s="40"/>
@@ -2621,7 +2687,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2650,8 +2716,12 @@
       <c r="O23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="P23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
@@ -2679,11 +2749,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2712,8 +2782,12 @@
       <c r="O24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="P24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R24" s="40"/>
       <c r="S24" s="40"/>
       <c r="T24" s="40"/>
@@ -2745,7 +2819,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2774,8 +2848,12 @@
       <c r="O25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="P25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="40"/>
       <c r="S25" s="40"/>
       <c r="T25" s="40"/>
@@ -2803,11 +2881,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2836,8 +2914,12 @@
       <c r="O26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
+      <c r="P26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
       <c r="T26" s="40"/>
@@ -2865,7 +2947,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
@@ -2898,8 +2980,12 @@
       <c r="O27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
+      <c r="P27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
       <c r="T27" s="40"/>
@@ -2931,7 +3017,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2960,8 +3046,12 @@
       <c r="O28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
+      <c r="P28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
       <c r="T28" s="40"/>
@@ -2989,11 +3079,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3022,8 +3112,12 @@
       <c r="O29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
+      <c r="P29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
@@ -3055,7 +3149,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -3084,8 +3178,12 @@
       <c r="O30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
+      <c r="P30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
       <c r="T30" s="40"/>
@@ -3117,7 +3215,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3146,8 +3244,12 @@
       <c r="O31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="P31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="40"/>
       <c r="S31" s="40"/>
       <c r="T31" s="40"/>
@@ -3179,7 +3281,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3208,8 +3310,12 @@
       <c r="O32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
+      <c r="P32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
       <c r="T32" s="40"/>
@@ -3241,7 +3347,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3270,8 +3376,12 @@
       <c r="O33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
+      <c r="P33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
       <c r="T33" s="40"/>
@@ -3303,7 +3413,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>21</v>
@@ -3332,8 +3442,12 @@
       <c r="O34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
+      <c r="P34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
       <c r="T34" s="40"/>
@@ -3365,7 +3479,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3394,8 +3508,12 @@
       <c r="O35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
+      <c r="P35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="40"/>
       <c r="S35" s="40"/>
       <c r="T35" s="40"/>
@@ -3427,7 +3545,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3456,8 +3574,12 @@
       <c r="O36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
+      <c r="P36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -3489,7 +3611,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3518,8 +3640,12 @@
       <c r="O37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
+      <c r="P37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="40"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
@@ -3551,7 +3677,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3580,8 +3706,12 @@
       <c r="O38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
+      <c r="P38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="40"/>
       <c r="S38" s="40"/>
       <c r="T38" s="40"/>
@@ -3613,7 +3743,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>20</v>
@@ -3642,8 +3772,12 @@
       <c r="O39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
+      <c r="P39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="40"/>
       <c r="S39" s="40"/>
       <c r="T39" s="40"/>
@@ -3675,7 +3809,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3704,8 +3838,12 @@
       <c r="O40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
+      <c r="P40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
       <c r="T40" s="40"/>
@@ -3737,7 +3875,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>20</v>
@@ -3766,8 +3904,12 @@
       <c r="O41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
+      <c r="P41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
       <c r="T41" s="40"/>
@@ -3795,11 +3937,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -3828,8 +3970,12 @@
       <c r="O42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
+      <c r="P42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="40"/>
       <c r="S42" s="40"/>
       <c r="T42" s="40"/>
@@ -3861,7 +4007,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3890,8 +4036,12 @@
       <c r="O43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
+      <c r="P43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="40"/>
       <c r="S43" s="40"/>
       <c r="T43" s="40"/>
@@ -3923,7 +4073,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -3952,8 +4102,12 @@
       <c r="O44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
+      <c r="P44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="40"/>
       <c r="S44" s="40"/>
       <c r="T44" s="40"/>
@@ -3981,11 +4135,11 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -4014,8 +4168,12 @@
       <c r="O45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
+      <c r="P45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="40"/>
       <c r="S45" s="40"/>
       <c r="T45" s="40"/>
@@ -4043,11 +4201,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>21</v>
@@ -4076,8 +4234,12 @@
       <c r="O46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
+      <c r="P46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="40"/>
       <c r="S46" s="40"/>
       <c r="T46" s="40"/>
@@ -4109,7 +4271,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4138,8 +4300,12 @@
       <c r="O47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
+      <c r="P47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="40"/>
       <c r="S47" s="40"/>
       <c r="T47" s="40"/>
@@ -4171,7 +4337,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -4200,8 +4366,12 @@
       <c r="O48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
+      <c r="P48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="40"/>
       <c r="S48" s="40"/>
       <c r="T48" s="40"/>
@@ -4233,7 +4403,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>21</v>
@@ -4262,8 +4432,12 @@
       <c r="O49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
+      <c r="P49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="40"/>
       <c r="S49" s="40"/>
       <c r="T49" s="40"/>
@@ -4295,7 +4469,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>21</v>
@@ -4324,8 +4498,12 @@
       <c r="O50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
+      <c r="P50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="40"/>
       <c r="S50" s="40"/>
       <c r="T50" s="40"/>
@@ -4353,11 +4531,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -4386,8 +4564,12 @@
       <c r="O51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
+      <c r="P51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="40"/>
       <c r="S51" s="40"/>
       <c r="T51" s="40"/>
@@ -4419,7 +4601,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -4448,8 +4630,12 @@
       <c r="O52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
+      <c r="P52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="40"/>
       <c r="S52" s="40"/>
       <c r="T52" s="40"/>
@@ -4481,7 +4667,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -4510,8 +4696,12 @@
       <c r="O53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
+      <c r="P53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="40"/>
       <c r="S53" s="40"/>
       <c r="T53" s="40"/>
@@ -4543,7 +4733,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4572,8 +4762,12 @@
       <c r="O54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
+      <c r="P54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="40"/>
       <c r="S54" s="40"/>
       <c r="T54" s="40"/>
@@ -4605,7 +4799,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -4634,8 +4828,12 @@
       <c r="O55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
+      <c r="P55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="40"/>
       <c r="S55" s="40"/>
       <c r="T55" s="40"/>
@@ -4667,7 +4865,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4696,8 +4894,12 @@
       <c r="O56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
+      <c r="P56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="40"/>
       <c r="S56" s="40"/>
       <c r="T56" s="40"/>
@@ -4725,11 +4927,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -4758,8 +4960,12 @@
       <c r="O57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
+      <c r="P57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R57" s="40"/>
       <c r="S57" s="40"/>
       <c r="T57" s="40"/>
@@ -4791,7 +4997,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -4820,8 +5026,12 @@
       <c r="O58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
+      <c r="P58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="40"/>
       <c r="S58" s="40"/>
       <c r="T58" s="40"/>
@@ -4853,7 +5063,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4882,8 +5092,12 @@
       <c r="O59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
+      <c r="P59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="40"/>
       <c r="S59" s="40"/>
       <c r="T59" s="40"/>
@@ -4911,11 +5125,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -4944,8 +5158,12 @@
       <c r="O60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
+      <c r="P60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="40"/>
       <c r="S60" s="40"/>
       <c r="T60" s="40"/>
@@ -4977,7 +5195,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -5006,8 +5224,12 @@
       <c r="O61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
+      <c r="P61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="40"/>
       <c r="S61" s="40"/>
       <c r="T61" s="40"/>
@@ -5039,7 +5261,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -5068,8 +5290,12 @@
       <c r="O62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
+      <c r="P62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="40"/>
       <c r="S62" s="40"/>
       <c r="T62" s="40"/>
@@ -5101,7 +5327,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -5130,8 +5356,12 @@
       <c r="O63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
+      <c r="P63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="40"/>
       <c r="S63" s="40"/>
       <c r="T63" s="40"/>
@@ -5159,11 +5389,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>20</v>
@@ -5192,8 +5422,12 @@
       <c r="O64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
+      <c r="P64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R64" s="40"/>
       <c r="S64" s="40"/>
       <c r="T64" s="40"/>
@@ -5221,11 +5455,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -5254,8 +5488,12 @@
       <c r="O65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
+      <c r="P65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="40"/>
       <c r="S65" s="40"/>
       <c r="T65" s="40"/>
@@ -5287,7 +5525,7 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -5316,8 +5554,12 @@
       <c r="O66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
+      <c r="P66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="40"/>
       <c r="S66" s="40"/>
       <c r="T66" s="40"/>
@@ -5349,7 +5591,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -5378,8 +5620,12 @@
       <c r="O67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
+      <c r="P67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="40"/>
       <c r="S67" s="40"/>
       <c r="T67" s="40"/>
@@ -5411,7 +5657,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -5440,8 +5686,12 @@
       <c r="O68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
+      <c r="P68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="40"/>
       <c r="S68" s="40"/>
       <c r="T68" s="40"/>
@@ -5473,7 +5723,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>21</v>
@@ -5502,8 +5752,12 @@
       <c r="O69" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
+      <c r="P69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="40"/>
       <c r="S69" s="40"/>
       <c r="T69" s="40"/>
@@ -5535,7 +5789,7 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -5564,8 +5818,12 @@
       <c r="O70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
+      <c r="P70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="40"/>
       <c r="S70" s="40"/>
       <c r="T70" s="40"/>
@@ -5597,7 +5855,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>21</v>
@@ -5626,8 +5884,12 @@
       <c r="O71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
+      <c r="P71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="40"/>
       <c r="S71" s="40"/>
       <c r="T71" s="40"/>
@@ -5655,11 +5917,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -5688,8 +5950,12 @@
       <c r="O72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
+      <c r="P72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="40"/>
       <c r="S72" s="40"/>
       <c r="T72" s="40"/>
@@ -5721,7 +5987,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -5750,8 +6016,12 @@
       <c r="O73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
+      <c r="P73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="40"/>
       <c r="S73" s="40"/>
       <c r="T73" s="40"/>
@@ -5783,7 +6053,7 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -5812,8 +6082,12 @@
       <c r="O74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
+      <c r="P74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="40"/>
       <c r="S74" s="40"/>
       <c r="T74" s="40"/>
@@ -5841,11 +6115,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>20</v>
@@ -5874,8 +6148,12 @@
       <c r="O75" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
+      <c r="P75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="R75" s="40"/>
       <c r="S75" s="40"/>
       <c r="T75" s="40"/>
@@ -5907,7 +6185,7 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -5936,8 +6214,12 @@
       <c r="O76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
+      <c r="P76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R76" s="40"/>
       <c r="S76" s="40"/>
       <c r="T76" s="40"/>
@@ -5969,7 +6251,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>21</v>
@@ -5998,8 +6280,12 @@
       <c r="O77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
+      <c r="P77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R77" s="40"/>
       <c r="S77" s="40"/>
       <c r="T77" s="40"/>
@@ -6031,7 +6317,7 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>20</v>
@@ -6060,8 +6346,12 @@
       <c r="O78" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
+      <c r="P78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="40"/>
       <c r="S78" s="40"/>
       <c r="T78" s="40"/>
@@ -6093,7 +6383,7 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>20</v>
@@ -6122,8 +6412,12 @@
       <c r="O79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
+      <c r="P79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R79" s="40"/>
       <c r="S79" s="40"/>
       <c r="T79" s="40"/>
@@ -6155,7 +6449,7 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>20</v>
@@ -6184,8 +6478,12 @@
       <c r="O80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
+      <c r="P80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R80" s="40"/>
       <c r="S80" s="40"/>
       <c r="T80" s="40"/>
@@ -6213,11 +6511,11 @@
       </c>
       <c r="E81" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>20</v>
@@ -6246,8 +6544,12 @@
       <c r="O81" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
+      <c r="P81" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q81" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R81" s="40"/>
       <c r="S81" s="40"/>
       <c r="T81" s="40"/>

--- a/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1627,11 +1627,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1666,11 +1666,21 @@
       <c r="Q7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
+      <c r="R7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
@@ -1693,11 +1703,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1732,12 +1742,22 @@
       <c r="Q8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="R8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="39"/>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
@@ -1759,11 +1779,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>21</v>
@@ -1798,11 +1818,21 @@
       <c r="Q9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
+      <c r="R9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
@@ -1829,7 +1859,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1864,11 +1894,21 @@
       <c r="Q10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
+      <c r="R10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
@@ -1895,7 +1935,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>20</v>
@@ -1930,11 +1970,21 @@
       <c r="Q11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
+      <c r="R11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W11" s="40"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
@@ -1961,7 +2011,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1996,11 +2046,21 @@
       <c r="Q12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="R12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
@@ -2023,11 +2083,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2062,11 +2122,21 @@
       <c r="Q13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+      <c r="R13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
@@ -2089,11 +2159,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2128,11 +2198,21 @@
       <c r="Q14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
+      <c r="R14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W14" s="40"/>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
@@ -2155,11 +2235,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>21</v>
@@ -2194,11 +2274,21 @@
       <c r="Q15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
+      <c r="R15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W15" s="40"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
@@ -2221,11 +2311,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2260,11 +2350,21 @@
       <c r="Q16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="R16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W16" s="40"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -2291,7 +2391,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2326,11 +2426,21 @@
       <c r="Q17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+      <c r="R17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W17" s="40"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
@@ -2357,7 +2467,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2392,11 +2502,21 @@
       <c r="Q18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
+      <c r="R18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
@@ -2423,7 +2543,7 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2458,11 +2578,21 @@
       <c r="Q19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
+      <c r="R19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
@@ -2489,7 +2619,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2524,11 +2654,21 @@
       <c r="Q20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
+      <c r="R20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
@@ -2555,7 +2695,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>20</v>
@@ -2590,11 +2730,21 @@
       <c r="Q21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
+      <c r="R21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W21" s="40"/>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
@@ -2621,7 +2771,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2656,11 +2806,21 @@
       <c r="Q22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="R22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W22" s="40"/>
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
@@ -2687,7 +2847,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2722,11 +2882,21 @@
       <c r="Q23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
+      <c r="R23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
@@ -2749,11 +2919,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2788,11 +2958,21 @@
       <c r="Q24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
+      <c r="R24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W24" s="40"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="40"/>
@@ -2819,7 +2999,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2854,11 +3034,21 @@
       <c r="Q25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
+      <c r="R25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W25" s="40"/>
       <c r="X25" s="40"/>
       <c r="Y25" s="40"/>
@@ -2881,11 +3071,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2920,11 +3110,21 @@
       <c r="Q26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
+      <c r="R26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
@@ -2947,7 +3147,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
@@ -2986,11 +3186,21 @@
       <c r="Q27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
+      <c r="R27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W27" s="40"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="40"/>
@@ -3017,7 +3227,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3052,11 +3262,21 @@
       <c r="Q28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
+      <c r="R28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
       <c r="Y28" s="40"/>
@@ -3083,7 +3303,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3118,11 +3338,21 @@
       <c r="Q29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
+      <c r="R29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
       <c r="Y29" s="40"/>
@@ -3149,7 +3379,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -3184,11 +3414,21 @@
       <c r="Q30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
+      <c r="R30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W30" s="40"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
@@ -3215,7 +3455,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3250,11 +3490,21 @@
       <c r="Q31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
+      <c r="R31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W31" s="40"/>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
@@ -3281,7 +3531,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3316,11 +3566,21 @@
       <c r="Q32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
+      <c r="R32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W32" s="40"/>
       <c r="X32" s="40"/>
       <c r="Y32" s="40"/>
@@ -3343,11 +3603,11 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3382,11 +3642,21 @@
       <c r="Q33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
+      <c r="R33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W33" s="40"/>
       <c r="X33" s="40"/>
       <c r="Y33" s="40"/>
@@ -3409,11 +3679,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>21</v>
@@ -3448,11 +3718,21 @@
       <c r="Q34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
+      <c r="R34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
@@ -3479,7 +3759,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3514,11 +3794,21 @@
       <c r="Q35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
+      <c r="R35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
       <c r="Y35" s="40"/>
@@ -3541,11 +3831,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3580,11 +3870,21 @@
       <c r="Q36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
+      <c r="R36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
@@ -3607,11 +3907,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3646,11 +3946,21 @@
       <c r="Q37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
+      <c r="R37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
@@ -3677,7 +3987,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3712,11 +4022,21 @@
       <c r="Q38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
+      <c r="R38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
@@ -3743,7 +4063,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>20</v>
@@ -3778,11 +4098,21 @@
       <c r="Q39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
+      <c r="R39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
@@ -3809,7 +4139,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3844,11 +4174,21 @@
       <c r="Q40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
+      <c r="R40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W40" s="40"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="40"/>
@@ -3875,7 +4215,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>20</v>
@@ -3910,11 +4250,21 @@
       <c r="Q41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
+      <c r="R41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
@@ -3941,7 +4291,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -3976,11 +4326,21 @@
       <c r="Q42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
+      <c r="R42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
@@ -4007,7 +4367,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4042,11 +4402,21 @@
       <c r="Q43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
+      <c r="R43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W43" s="40"/>
       <c r="X43" s="40"/>
       <c r="Y43" s="40"/>
@@ -4069,11 +4439,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -4108,11 +4478,21 @@
       <c r="Q44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
+      <c r="R44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W44" s="40"/>
       <c r="X44" s="40"/>
       <c r="Y44" s="40"/>
@@ -4139,7 +4519,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -4174,11 +4554,21 @@
       <c r="Q45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
+      <c r="R45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W45" s="40"/>
       <c r="X45" s="40"/>
       <c r="Y45" s="40"/>
@@ -4205,7 +4595,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>21</v>
@@ -4240,11 +4630,21 @@
       <c r="Q46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
+      <c r="R46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W46" s="40"/>
       <c r="X46" s="40"/>
       <c r="Y46" s="40"/>
@@ -4267,11 +4667,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4306,11 +4706,21 @@
       <c r="Q47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
+      <c r="R47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W47" s="40"/>
       <c r="X47" s="40"/>
       <c r="Y47" s="40"/>
@@ -4337,7 +4747,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -4372,11 +4782,21 @@
       <c r="Q48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
+      <c r="R48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W48" s="40"/>
       <c r="X48" s="40"/>
       <c r="Y48" s="40"/>
@@ -4399,11 +4819,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>21</v>
@@ -4438,11 +4858,21 @@
       <c r="Q49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
+      <c r="R49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W49" s="40"/>
       <c r="X49" s="40"/>
       <c r="Y49" s="40"/>
@@ -4469,7 +4899,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>21</v>
@@ -4504,11 +4934,21 @@
       <c r="Q50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
+      <c r="R50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W50" s="40"/>
       <c r="X50" s="40"/>
       <c r="Y50" s="40"/>
@@ -4531,11 +4971,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -4570,11 +5010,21 @@
       <c r="Q51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
+      <c r="R51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W51" s="40"/>
       <c r="X51" s="40"/>
       <c r="Y51" s="40"/>
@@ -4601,7 +5051,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -4636,11 +5086,21 @@
       <c r="Q52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
+      <c r="R52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W52" s="40"/>
       <c r="X52" s="40"/>
       <c r="Y52" s="40"/>
@@ -4667,7 +5127,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -4702,11 +5162,21 @@
       <c r="Q53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
+      <c r="R53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W53" s="40"/>
       <c r="X53" s="40"/>
       <c r="Y53" s="40"/>
@@ -4729,11 +5199,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4768,11 +5238,21 @@
       <c r="Q54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
+      <c r="R54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W54" s="40"/>
       <c r="X54" s="40"/>
       <c r="Y54" s="40"/>
@@ -4799,7 +5279,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -4834,11 +5314,21 @@
       <c r="Q55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
+      <c r="R55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W55" s="40"/>
       <c r="X55" s="40"/>
       <c r="Y55" s="40"/>
@@ -4861,11 +5351,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4900,11 +5390,21 @@
       <c r="Q56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
+      <c r="R56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W56" s="40"/>
       <c r="X56" s="40"/>
       <c r="Y56" s="40"/>
@@ -4927,11 +5427,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -4966,11 +5466,21 @@
       <c r="Q57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
+      <c r="R57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W57" s="40"/>
       <c r="X57" s="40"/>
       <c r="Y57" s="40"/>
@@ -4993,11 +5503,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5032,11 +5542,21 @@
       <c r="Q58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
+      <c r="R58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W58" s="40"/>
       <c r="X58" s="40"/>
       <c r="Y58" s="40"/>
@@ -5059,11 +5579,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -5098,11 +5618,21 @@
       <c r="Q59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
+      <c r="R59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W59" s="40"/>
       <c r="X59" s="40"/>
       <c r="Y59" s="40"/>
@@ -5125,11 +5655,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -5164,11 +5694,21 @@
       <c r="Q60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
+      <c r="R60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W60" s="40"/>
       <c r="X60" s="40"/>
       <c r="Y60" s="40"/>
@@ -5191,11 +5731,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -5230,11 +5770,21 @@
       <c r="Q61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
+      <c r="R61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W61" s="40"/>
       <c r="X61" s="40"/>
       <c r="Y61" s="40"/>
@@ -5257,11 +5807,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -5296,11 +5846,21 @@
       <c r="Q62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
+      <c r="R62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W62" s="40"/>
       <c r="X62" s="40"/>
       <c r="Y62" s="40"/>
@@ -5327,7 +5887,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -5362,11 +5922,21 @@
       <c r="Q63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
+      <c r="R63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W63" s="40"/>
       <c r="X63" s="40"/>
       <c r="Y63" s="40"/>
@@ -5389,11 +5959,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>20</v>
@@ -5428,11 +5998,21 @@
       <c r="Q64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
+      <c r="R64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W64" s="40"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="40"/>
@@ -5455,11 +6035,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -5494,11 +6074,21 @@
       <c r="Q65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
+      <c r="R65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W65" s="40"/>
       <c r="X65" s="40"/>
       <c r="Y65" s="40"/>
@@ -5521,11 +6111,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -5560,11 +6150,21 @@
       <c r="Q66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
+      <c r="R66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W66" s="40"/>
       <c r="X66" s="40"/>
       <c r="Y66" s="40"/>
@@ -5587,11 +6187,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -5626,11 +6226,21 @@
       <c r="Q67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
+      <c r="R67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W67" s="40"/>
       <c r="X67" s="40"/>
       <c r="Y67" s="40"/>
@@ -5657,7 +6267,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -5692,11 +6302,21 @@
       <c r="Q68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
+      <c r="R68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W68" s="40"/>
       <c r="X68" s="40"/>
       <c r="Y68" s="40"/>
@@ -5723,7 +6343,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>21</v>
@@ -5758,11 +6378,21 @@
       <c r="Q69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
+      <c r="R69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W69" s="40"/>
       <c r="X69" s="40"/>
       <c r="Y69" s="40"/>
@@ -5785,11 +6415,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -5824,11 +6454,21 @@
       <c r="Q70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
+      <c r="R70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="W70" s="40"/>
       <c r="X70" s="40"/>
       <c r="Y70" s="40"/>
@@ -5855,7 +6495,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>21</v>
@@ -5890,11 +6530,21 @@
       <c r="Q71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
+      <c r="R71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V71" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W71" s="40"/>
       <c r="X71" s="40"/>
       <c r="Y71" s="40"/>
@@ -5917,11 +6567,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -5956,11 +6606,21 @@
       <c r="Q72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
+      <c r="R72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W72" s="40"/>
       <c r="X72" s="40"/>
       <c r="Y72" s="40"/>
@@ -5983,11 +6643,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -6022,11 +6682,21 @@
       <c r="Q73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
+      <c r="R73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W73" s="40"/>
       <c r="X73" s="40"/>
       <c r="Y73" s="40"/>
@@ -6053,7 +6723,7 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -6088,11 +6758,21 @@
       <c r="Q74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
+      <c r="R74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W74" s="40"/>
       <c r="X74" s="40"/>
       <c r="Y74" s="40"/>
@@ -6119,7 +6799,7 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>20</v>
@@ -6154,11 +6834,21 @@
       <c r="Q75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
+      <c r="R75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V75" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W75" s="40"/>
       <c r="X75" s="40"/>
       <c r="Y75" s="40"/>
@@ -6181,11 +6871,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -6220,11 +6910,21 @@
       <c r="Q76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
+      <c r="R76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V76" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W76" s="40"/>
       <c r="X76" s="40"/>
       <c r="Y76" s="40"/>
@@ -6251,7 +6951,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>21</v>
@@ -6286,11 +6986,21 @@
       <c r="Q77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
+      <c r="R77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W77" s="40"/>
       <c r="X77" s="40"/>
       <c r="Y77" s="40"/>
@@ -6313,11 +7023,11 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>20</v>
@@ -6352,11 +7062,21 @@
       <c r="Q78" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
+      <c r="R78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V78" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W78" s="40"/>
       <c r="X78" s="40"/>
       <c r="Y78" s="40"/>
@@ -6379,11 +7099,11 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>20</v>
@@ -6418,11 +7138,21 @@
       <c r="Q79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
+      <c r="R79" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T79" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W79" s="40"/>
       <c r="X79" s="40"/>
       <c r="Y79" s="40"/>
@@ -6445,11 +7175,11 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>20</v>
@@ -6484,11 +7214,21 @@
       <c r="Q80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
+      <c r="R80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T80" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V80" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W80" s="40"/>
       <c r="X80" s="40"/>
       <c r="Y80" s="40"/>
@@ -6511,11 +7251,11 @@
       </c>
       <c r="E81" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>20</v>
@@ -6550,11 +7290,21 @@
       <c r="Q81" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
+      <c r="R81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T81" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V81" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="W81" s="40"/>
       <c r="X81" s="40"/>
       <c r="Y81" s="40"/>

--- a/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1681,7 +1681,9 @@
       <c r="V7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="33"/>
+      <c r="W7" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
@@ -1707,7 +1709,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1757,8 +1759,10 @@
       <c r="V8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40"/>
+      <c r="W8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="39"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
       <c r="AA8" s="40"/>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>21</v>
@@ -1833,7 +1837,9 @@
       <c r="V9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="40"/>
+      <c r="W9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
@@ -1855,7 +1861,7 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
@@ -1909,7 +1915,9 @@
       <c r="V10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="40"/>
+      <c r="W10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
@@ -1931,7 +1939,7 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
@@ -1985,7 +1993,9 @@
       <c r="V11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="40"/>
+      <c r="W11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
@@ -2011,7 +2021,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -2061,7 +2071,9 @@
       <c r="V12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="40"/>
+      <c r="W12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
@@ -2087,7 +2099,7 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2137,7 +2149,9 @@
       <c r="V13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W13" s="40"/>
+      <c r="W13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
@@ -2163,7 +2177,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2213,7 +2227,9 @@
       <c r="V14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="40"/>
+      <c r="W14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
@@ -2239,7 +2255,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>21</v>
@@ -2289,7 +2305,9 @@
       <c r="V15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="40"/>
+      <c r="W15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
@@ -2315,7 +2333,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2365,7 +2383,9 @@
       <c r="V16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="40"/>
+      <c r="W16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
@@ -2391,7 +2411,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2441,7 +2461,9 @@
       <c r="V17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="40"/>
+      <c r="W17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
       <c r="Z17" s="40"/>
@@ -2467,7 +2489,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2517,7 +2539,9 @@
       <c r="V18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="40"/>
+      <c r="W18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
@@ -2539,7 +2563,7 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
@@ -2593,7 +2617,9 @@
       <c r="V19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="40"/>
+      <c r="W19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
       <c r="Z19" s="40"/>
@@ -2619,7 +2645,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2669,7 +2695,9 @@
       <c r="V20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="40"/>
+      <c r="W20" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="40"/>
@@ -2691,7 +2719,7 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
@@ -2745,7 +2773,9 @@
       <c r="V21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="40"/>
+      <c r="W21" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
       <c r="Z21" s="40"/>
@@ -2771,7 +2801,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2821,7 +2851,9 @@
       <c r="V22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="40"/>
+      <c r="W22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="40"/>
@@ -2847,7 +2879,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2897,7 +2929,9 @@
       <c r="V23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="40"/>
+      <c r="W23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
@@ -2919,7 +2953,7 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
@@ -2973,7 +3007,9 @@
       <c r="V24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="40"/>
+      <c r="W24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X24" s="40"/>
       <c r="Y24" s="40"/>
       <c r="Z24" s="40"/>
@@ -2999,7 +3035,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -3049,7 +3085,9 @@
       <c r="V25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="40"/>
+      <c r="W25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X25" s="40"/>
       <c r="Y25" s="40"/>
       <c r="Z25" s="40"/>
@@ -3071,7 +3109,7 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
@@ -3125,7 +3163,9 @@
       <c r="V26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="40"/>
+      <c r="W26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
@@ -3147,7 +3187,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
@@ -3201,7 +3241,9 @@
       <c r="V27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="40"/>
+      <c r="W27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X27" s="40"/>
       <c r="Y27" s="40"/>
       <c r="Z27" s="40"/>
@@ -3227,7 +3269,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3277,7 +3319,9 @@
       <c r="V28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="40"/>
+      <c r="W28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X28" s="40"/>
       <c r="Y28" s="40"/>
       <c r="Z28" s="40"/>
@@ -3303,7 +3347,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3353,7 +3397,9 @@
       <c r="V29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="40"/>
+      <c r="W29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X29" s="40"/>
       <c r="Y29" s="40"/>
       <c r="Z29" s="40"/>
@@ -3379,7 +3425,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -3429,7 +3475,9 @@
       <c r="V30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="40"/>
+      <c r="W30" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="40"/>
@@ -3455,7 +3503,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3505,7 +3553,9 @@
       <c r="V31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="40"/>
+      <c r="W31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
       <c r="Z31" s="40"/>
@@ -3527,7 +3577,7 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
@@ -3581,7 +3631,9 @@
       <c r="V32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="40"/>
+      <c r="W32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X32" s="40"/>
       <c r="Y32" s="40"/>
       <c r="Z32" s="40"/>
@@ -3603,7 +3655,7 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
@@ -3657,7 +3709,9 @@
       <c r="V33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="40"/>
+      <c r="W33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X33" s="40"/>
       <c r="Y33" s="40"/>
       <c r="Z33" s="40"/>
@@ -3683,7 +3737,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>21</v>
@@ -3733,7 +3787,9 @@
       <c r="V34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="40"/>
+      <c r="W34" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
       <c r="Z34" s="40"/>
@@ -3759,7 +3815,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3809,7 +3865,9 @@
       <c r="V35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="40"/>
+      <c r="W35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X35" s="40"/>
       <c r="Y35" s="40"/>
       <c r="Z35" s="40"/>
@@ -3835,7 +3893,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3885,7 +3943,9 @@
       <c r="V36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="40"/>
+      <c r="W36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
@@ -3907,7 +3967,7 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
@@ -3961,7 +4021,9 @@
       <c r="V37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="40"/>
+      <c r="W37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
       <c r="Z37" s="40"/>
@@ -3987,7 +4049,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -4037,7 +4099,9 @@
       <c r="V38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W38" s="40"/>
+      <c r="W38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="40"/>
@@ -4063,7 +4127,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>20</v>
@@ -4113,7 +4177,9 @@
       <c r="V39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W39" s="40"/>
+      <c r="W39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
@@ -4139,7 +4205,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -4189,7 +4255,9 @@
       <c r="V40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="40"/>
+      <c r="W40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X40" s="40"/>
       <c r="Y40" s="40"/>
       <c r="Z40" s="40"/>
@@ -4215,7 +4283,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>20</v>
@@ -4265,7 +4333,9 @@
       <c r="V41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="40"/>
+      <c r="W41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
       <c r="Z41" s="40"/>
@@ -4291,7 +4361,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -4341,7 +4411,9 @@
       <c r="V42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W42" s="40"/>
+      <c r="W42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="40"/>
@@ -4367,7 +4439,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4417,7 +4489,9 @@
       <c r="V43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="40"/>
+      <c r="W43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X43" s="40"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
@@ -4443,7 +4517,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -4493,7 +4567,9 @@
       <c r="V44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="40"/>
+      <c r="W44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X44" s="40"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
@@ -4515,7 +4591,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
@@ -4569,7 +4645,9 @@
       <c r="V45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W45" s="40"/>
+      <c r="W45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X45" s="40"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
@@ -4595,7 +4673,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>21</v>
@@ -4645,7 +4723,9 @@
       <c r="V46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W46" s="40"/>
+      <c r="W46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X46" s="40"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
@@ -4671,7 +4751,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4721,7 +4801,9 @@
       <c r="V47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W47" s="40"/>
+      <c r="W47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X47" s="40"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
@@ -4747,7 +4829,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -4797,7 +4879,9 @@
       <c r="V48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W48" s="40"/>
+      <c r="W48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X48" s="40"/>
       <c r="Y48" s="40"/>
       <c r="Z48" s="40"/>
@@ -4823,7 +4907,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>21</v>
@@ -4873,7 +4957,9 @@
       <c r="V49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="40"/>
+      <c r="W49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X49" s="40"/>
       <c r="Y49" s="40"/>
       <c r="Z49" s="40"/>
@@ -4899,7 +4985,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>21</v>
@@ -4949,7 +5035,9 @@
       <c r="V50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="40"/>
+      <c r="W50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X50" s="40"/>
       <c r="Y50" s="40"/>
       <c r="Z50" s="40"/>
@@ -4975,7 +5063,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -5025,7 +5113,9 @@
       <c r="V51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W51" s="40"/>
+      <c r="W51" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X51" s="40"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="40"/>
@@ -5051,7 +5141,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -5101,7 +5191,9 @@
       <c r="V52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W52" s="40"/>
+      <c r="W52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X52" s="40"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="40"/>
@@ -5123,7 +5215,7 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
@@ -5177,7 +5269,9 @@
       <c r="V53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W53" s="40"/>
+      <c r="W53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X53" s="40"/>
       <c r="Y53" s="40"/>
       <c r="Z53" s="40"/>
@@ -5203,7 +5297,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -5253,7 +5347,9 @@
       <c r="V54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="40"/>
+      <c r="W54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X54" s="40"/>
       <c r="Y54" s="40"/>
       <c r="Z54" s="40"/>
@@ -5279,7 +5375,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -5329,7 +5425,9 @@
       <c r="V55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W55" s="40"/>
+      <c r="W55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X55" s="40"/>
       <c r="Y55" s="40"/>
       <c r="Z55" s="40"/>
@@ -5355,7 +5453,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -5405,7 +5503,9 @@
       <c r="V56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W56" s="40"/>
+      <c r="W56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X56" s="40"/>
       <c r="Y56" s="40"/>
       <c r="Z56" s="40"/>
@@ -5427,7 +5527,7 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
@@ -5481,7 +5581,9 @@
       <c r="V57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W57" s="40"/>
+      <c r="W57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X57" s="40"/>
       <c r="Y57" s="40"/>
       <c r="Z57" s="40"/>
@@ -5507,7 +5609,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5557,7 +5659,9 @@
       <c r="V58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W58" s="40"/>
+      <c r="W58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X58" s="40"/>
       <c r="Y58" s="40"/>
       <c r="Z58" s="40"/>
@@ -5583,7 +5687,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -5633,7 +5737,9 @@
       <c r="V59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W59" s="40"/>
+      <c r="W59" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X59" s="40"/>
       <c r="Y59" s="40"/>
       <c r="Z59" s="40"/>
@@ -5655,7 +5761,7 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
@@ -5709,7 +5815,9 @@
       <c r="V60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="40"/>
+      <c r="W60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X60" s="40"/>
       <c r="Y60" s="40"/>
       <c r="Z60" s="40"/>
@@ -5735,7 +5843,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -5785,7 +5893,9 @@
       <c r="V61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W61" s="40"/>
+      <c r="W61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X61" s="40"/>
       <c r="Y61" s="40"/>
       <c r="Z61" s="40"/>
@@ -5807,7 +5917,7 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
@@ -5861,7 +5971,9 @@
       <c r="V62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W62" s="40"/>
+      <c r="W62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X62" s="40"/>
       <c r="Y62" s="40"/>
       <c r="Z62" s="40"/>
@@ -5887,7 +5999,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -5937,7 +6049,9 @@
       <c r="V63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W63" s="40"/>
+      <c r="W63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X63" s="40"/>
       <c r="Y63" s="40"/>
       <c r="Z63" s="40"/>
@@ -5963,7 +6077,7 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>20</v>
@@ -6013,7 +6127,9 @@
       <c r="V64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W64" s="40"/>
+      <c r="W64" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X64" s="40"/>
       <c r="Y64" s="40"/>
       <c r="Z64" s="40"/>
@@ -6039,7 +6155,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -6089,7 +6205,9 @@
       <c r="V65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W65" s="40"/>
+      <c r="W65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X65" s="40"/>
       <c r="Y65" s="40"/>
       <c r="Z65" s="40"/>
@@ -6111,7 +6229,7 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
@@ -6165,7 +6283,9 @@
       <c r="V66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="40"/>
+      <c r="W66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X66" s="40"/>
       <c r="Y66" s="40"/>
       <c r="Z66" s="40"/>
@@ -6191,7 +6311,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -6241,7 +6361,9 @@
       <c r="V67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W67" s="40"/>
+      <c r="W67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X67" s="40"/>
       <c r="Y67" s="40"/>
       <c r="Z67" s="40"/>
@@ -6267,7 +6389,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -6317,7 +6439,9 @@
       <c r="V68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W68" s="40"/>
+      <c r="W68" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X68" s="40"/>
       <c r="Y68" s="40"/>
       <c r="Z68" s="40"/>
@@ -6343,7 +6467,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>21</v>
@@ -6393,7 +6517,9 @@
       <c r="V69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W69" s="40"/>
+      <c r="W69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X69" s="40"/>
       <c r="Y69" s="40"/>
       <c r="Z69" s="40"/>
@@ -6419,7 +6545,7 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -6469,7 +6595,9 @@
       <c r="V70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W70" s="40"/>
+      <c r="W70" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X70" s="40"/>
       <c r="Y70" s="40"/>
       <c r="Z70" s="40"/>
@@ -6495,7 +6623,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>21</v>
@@ -6545,7 +6673,9 @@
       <c r="V71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W71" s="40"/>
+      <c r="W71" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X71" s="40"/>
       <c r="Y71" s="40"/>
       <c r="Z71" s="40"/>
@@ -6571,7 +6701,7 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -6621,7 +6751,9 @@
       <c r="V72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W72" s="40"/>
+      <c r="W72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X72" s="40"/>
       <c r="Y72" s="40"/>
       <c r="Z72" s="40"/>
@@ -6647,7 +6779,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -6697,7 +6829,9 @@
       <c r="V73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W73" s="40"/>
+      <c r="W73" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X73" s="40"/>
       <c r="Y73" s="40"/>
       <c r="Z73" s="40"/>
@@ -6723,7 +6857,7 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -6773,7 +6907,9 @@
       <c r="V74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W74" s="40"/>
+      <c r="W74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X74" s="40"/>
       <c r="Y74" s="40"/>
       <c r="Z74" s="40"/>
@@ -6799,7 +6935,7 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>20</v>
@@ -6849,7 +6985,9 @@
       <c r="V75" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W75" s="40"/>
+      <c r="W75" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X75" s="40"/>
       <c r="Y75" s="40"/>
       <c r="Z75" s="40"/>
@@ -6871,7 +7009,7 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
@@ -6925,7 +7063,9 @@
       <c r="V76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W76" s="40"/>
+      <c r="W76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X76" s="40"/>
       <c r="Y76" s="40"/>
       <c r="Z76" s="40"/>
@@ -6951,7 +7091,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>21</v>
@@ -7001,7 +7141,9 @@
       <c r="V77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W77" s="40"/>
+      <c r="W77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X77" s="40"/>
       <c r="Y77" s="40"/>
       <c r="Z77" s="40"/>
@@ -7027,7 +7169,7 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>20</v>
@@ -7077,7 +7219,9 @@
       <c r="V78" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W78" s="40"/>
+      <c r="W78" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X78" s="40"/>
       <c r="Y78" s="40"/>
       <c r="Z78" s="40"/>
@@ -7103,7 +7247,7 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>20</v>
@@ -7153,7 +7297,9 @@
       <c r="V79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W79" s="40"/>
+      <c r="W79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X79" s="40"/>
       <c r="Y79" s="40"/>
       <c r="Z79" s="40"/>
@@ -7179,7 +7325,7 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>20</v>
@@ -7229,7 +7375,9 @@
       <c r="V80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W80" s="40"/>
+      <c r="W80" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X80" s="40"/>
       <c r="Y80" s="40"/>
       <c r="Z80" s="40"/>
@@ -7255,7 +7403,7 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>20</v>
@@ -7305,7 +7453,9 @@
       <c r="V81" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W81" s="40"/>
+      <c r="W81" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="X81" s="40"/>
       <c r="Y81" s="40"/>
       <c r="Z81" s="40"/>

--- a/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1684,8 +1684,12 @@
       <c r="W7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
+      <c r="X7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
     </row>
@@ -1709,7 +1713,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1762,8 +1766,12 @@
       <c r="W8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="40"/>
+      <c r="X8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z8" s="40"/>
       <c r="AA8" s="40"/>
     </row>
@@ -1787,7 +1795,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>21</v>
@@ -1840,9 +1848,13 @@
       <c r="W9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="X9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="40"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1865,7 +1877,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1918,8 +1930,12 @@
       <c r="W10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
+      <c r="X10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40"/>
     </row>
@@ -1943,7 +1959,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>20</v>
@@ -1996,8 +2012,12 @@
       <c r="W11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
+      <c r="X11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z11" s="40"/>
       <c r="AA11" s="40"/>
     </row>
@@ -2021,7 +2041,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -2074,8 +2094,12 @@
       <c r="W12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
+      <c r="X12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40"/>
     </row>
@@ -2099,7 +2123,7 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2152,8 +2176,12 @@
       <c r="W13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
+      <c r="X13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
     </row>
@@ -2177,7 +2205,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2230,8 +2258,12 @@
       <c r="W14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
+      <c r="X14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
     </row>
@@ -2255,7 +2287,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>21</v>
@@ -2308,8 +2340,12 @@
       <c r="W15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
+      <c r="X15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z15" s="40"/>
       <c r="AA15" s="40"/>
     </row>
@@ -2333,7 +2369,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2386,8 +2422,12 @@
       <c r="W16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
+      <c r="X16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
     </row>
@@ -2411,7 +2451,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2464,8 +2504,12 @@
       <c r="W17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
+      <c r="X17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z17" s="40"/>
       <c r="AA17" s="40"/>
     </row>
@@ -2489,7 +2533,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2542,8 +2586,12 @@
       <c r="W18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
+      <c r="X18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
     </row>
@@ -2567,7 +2615,7 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2620,8 +2668,12 @@
       <c r="W19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
+      <c r="X19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40"/>
     </row>
@@ -2645,7 +2697,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2698,8 +2750,12 @@
       <c r="W20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
+      <c r="X20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z20" s="40"/>
       <c r="AA20" s="40"/>
     </row>
@@ -2719,7 +2775,7 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
@@ -2776,8 +2832,12 @@
       <c r="W21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
+      <c r="X21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z21" s="40"/>
       <c r="AA21" s="40"/>
     </row>
@@ -2801,7 +2861,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2854,8 +2914,12 @@
       <c r="W22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
+      <c r="X22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z22" s="40"/>
       <c r="AA22" s="40"/>
     </row>
@@ -2879,7 +2943,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2932,8 +2996,12 @@
       <c r="W23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
+      <c r="X23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z23" s="40"/>
       <c r="AA23" s="40"/>
     </row>
@@ -2957,7 +3025,7 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -3010,8 +3078,12 @@
       <c r="W24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
+      <c r="X24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z24" s="40"/>
       <c r="AA24" s="40"/>
     </row>
@@ -3031,11 +3103,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -3088,8 +3160,12 @@
       <c r="W25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
+      <c r="X25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z25" s="40"/>
       <c r="AA25" s="40"/>
     </row>
@@ -3113,7 +3189,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -3166,8 +3242,12 @@
       <c r="W26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
+      <c r="X26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z26" s="40"/>
       <c r="AA26" s="40"/>
     </row>
@@ -3187,7 +3267,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
@@ -3244,8 +3324,12 @@
       <c r="W27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
+      <c r="X27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z27" s="40"/>
       <c r="AA27" s="40"/>
     </row>
@@ -3265,11 +3349,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3322,8 +3406,12 @@
       <c r="W28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
+      <c r="X28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z28" s="40"/>
       <c r="AA28" s="40"/>
     </row>
@@ -3347,7 +3435,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3400,8 +3488,12 @@
       <c r="W29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
+      <c r="X29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z29" s="40"/>
       <c r="AA29" s="40"/>
     </row>
@@ -3425,7 +3517,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -3478,8 +3570,12 @@
       <c r="W30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
+      <c r="X30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z30" s="40"/>
       <c r="AA30" s="40"/>
     </row>
@@ -3503,7 +3599,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3556,8 +3652,12 @@
       <c r="W31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
+      <c r="X31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z31" s="40"/>
       <c r="AA31" s="40"/>
     </row>
@@ -3581,7 +3681,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3634,8 +3734,12 @@
       <c r="W32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
+      <c r="X32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z32" s="40"/>
       <c r="AA32" s="40"/>
     </row>
@@ -3655,11 +3759,11 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3712,8 +3816,12 @@
       <c r="W33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
+      <c r="X33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z33" s="40"/>
       <c r="AA33" s="40"/>
     </row>
@@ -3733,11 +3841,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>21</v>
@@ -3790,8 +3898,12 @@
       <c r="W34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
+      <c r="X34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z34" s="40"/>
       <c r="AA34" s="40"/>
     </row>
@@ -3815,7 +3927,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3868,8 +3980,12 @@
       <c r="W35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
+      <c r="X35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z35" s="40"/>
       <c r="AA35" s="40"/>
     </row>
@@ -3893,7 +4009,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3946,8 +4062,12 @@
       <c r="W36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
+      <c r="X36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z36" s="40"/>
       <c r="AA36" s="40"/>
     </row>
@@ -3971,7 +4091,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -4024,8 +4144,12 @@
       <c r="W37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
+      <c r="X37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z37" s="40"/>
       <c r="AA37" s="40"/>
     </row>
@@ -4049,7 +4173,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -4102,8 +4226,12 @@
       <c r="W38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
+      <c r="X38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z38" s="40"/>
       <c r="AA38" s="40"/>
     </row>
@@ -4123,7 +4251,7 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
@@ -4180,8 +4308,12 @@
       <c r="W39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
+      <c r="X39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
     </row>
@@ -4205,7 +4337,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -4258,8 +4390,12 @@
       <c r="W40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="X40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z40" s="40"/>
       <c r="AA40" s="40"/>
     </row>
@@ -4279,7 +4415,7 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
@@ -4336,8 +4472,12 @@
       <c r="W41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
+      <c r="X41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z41" s="40"/>
       <c r="AA41" s="40"/>
     </row>
@@ -4361,7 +4501,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -4414,8 +4554,12 @@
       <c r="W42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
+      <c r="X42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
     </row>
@@ -4439,7 +4583,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4492,8 +4636,12 @@
       <c r="W43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
+      <c r="X43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
     </row>
@@ -4517,7 +4665,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -4570,8 +4718,12 @@
       <c r="W44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
+      <c r="X44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
     </row>
@@ -4591,11 +4743,11 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -4648,8 +4800,12 @@
       <c r="W45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
+      <c r="X45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
     </row>
@@ -4673,7 +4829,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>21</v>
@@ -4726,8 +4882,12 @@
       <c r="W46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
+      <c r="X46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
     </row>
@@ -4751,7 +4911,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4804,8 +4964,12 @@
       <c r="W47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
+      <c r="X47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z47" s="40"/>
       <c r="AA47" s="40"/>
     </row>
@@ -4825,11 +4989,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -4882,8 +5046,12 @@
       <c r="W48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
+      <c r="X48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z48" s="40"/>
       <c r="AA48" s="40"/>
     </row>
@@ -4907,7 +5075,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>21</v>
@@ -4960,8 +5128,12 @@
       <c r="W49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
+      <c r="X49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z49" s="40"/>
       <c r="AA49" s="40"/>
     </row>
@@ -4985,7 +5157,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>21</v>
@@ -5038,8 +5210,12 @@
       <c r="W50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
+      <c r="X50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z50" s="40"/>
       <c r="AA50" s="40"/>
     </row>
@@ -5059,11 +5235,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -5116,8 +5292,12 @@
       <c r="W51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
+      <c r="X51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z51" s="40"/>
       <c r="AA51" s="40"/>
     </row>
@@ -5141,7 +5321,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -5194,8 +5374,12 @@
       <c r="W52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
+      <c r="X52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z52" s="40"/>
       <c r="AA52" s="40"/>
     </row>
@@ -5219,7 +5403,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -5272,8 +5456,12 @@
       <c r="W53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
+      <c r="X53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z53" s="40"/>
       <c r="AA53" s="40"/>
     </row>
@@ -5297,7 +5485,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -5350,8 +5538,12 @@
       <c r="W54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
+      <c r="X54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z54" s="40"/>
       <c r="AA54" s="40"/>
     </row>
@@ -5371,11 +5563,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -5428,8 +5620,12 @@
       <c r="W55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
+      <c r="X55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z55" s="40"/>
       <c r="AA55" s="40"/>
     </row>
@@ -5453,7 +5649,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -5506,8 +5702,12 @@
       <c r="W56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
+      <c r="X56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z56" s="40"/>
       <c r="AA56" s="40"/>
     </row>
@@ -5531,7 +5731,7 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -5584,8 +5784,12 @@
       <c r="W57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
+      <c r="X57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z57" s="40"/>
       <c r="AA57" s="40"/>
     </row>
@@ -5609,7 +5813,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5662,8 +5866,12 @@
       <c r="W58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
+      <c r="X58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z58" s="40"/>
       <c r="AA58" s="40"/>
     </row>
@@ -5683,7 +5891,7 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
@@ -5740,8 +5948,12 @@
       <c r="W59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
+      <c r="X59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z59" s="40"/>
       <c r="AA59" s="40"/>
     </row>
@@ -5765,7 +5977,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -5818,8 +6030,12 @@
       <c r="W60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
+      <c r="X60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z60" s="40"/>
       <c r="AA60" s="40"/>
     </row>
@@ -5843,7 +6059,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -5896,8 +6112,12 @@
       <c r="W61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
+      <c r="X61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z61" s="40"/>
       <c r="AA61" s="40"/>
     </row>
@@ -5921,7 +6141,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -5974,8 +6194,12 @@
       <c r="W62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
+      <c r="X62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y62" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z62" s="40"/>
       <c r="AA62" s="40"/>
     </row>
@@ -5995,11 +6219,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -6052,8 +6276,12 @@
       <c r="W63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
+      <c r="X63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z63" s="40"/>
       <c r="AA63" s="40"/>
     </row>
@@ -6073,11 +6301,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>20</v>
@@ -6130,8 +6358,12 @@
       <c r="W64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
+      <c r="X64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z64" s="40"/>
       <c r="AA64" s="40"/>
     </row>
@@ -6155,7 +6387,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -6208,8 +6440,12 @@
       <c r="W65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
+      <c r="X65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z65" s="40"/>
       <c r="AA65" s="40"/>
     </row>
@@ -6233,7 +6469,7 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -6286,8 +6522,12 @@
       <c r="W66" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
+      <c r="X66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z66" s="40"/>
       <c r="AA66" s="40"/>
     </row>
@@ -6311,7 +6551,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -6364,8 +6604,12 @@
       <c r="W67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
+      <c r="X67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z67" s="40"/>
       <c r="AA67" s="40"/>
     </row>
@@ -6385,11 +6629,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -6442,8 +6686,12 @@
       <c r="W68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
+      <c r="X68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z68" s="40"/>
       <c r="AA68" s="40"/>
     </row>
@@ -6467,7 +6715,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>21</v>
@@ -6520,8 +6768,12 @@
       <c r="W69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
+      <c r="X69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z69" s="40"/>
       <c r="AA69" s="40"/>
     </row>
@@ -6541,11 +6793,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -6598,8 +6850,12 @@
       <c r="W70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
+      <c r="X70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z70" s="40"/>
       <c r="AA70" s="40"/>
     </row>
@@ -6619,11 +6875,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>21</v>
@@ -6676,8 +6932,12 @@
       <c r="W71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
+      <c r="X71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z71" s="40"/>
       <c r="AA71" s="40"/>
     </row>
@@ -6697,11 +6957,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -6754,8 +7014,12 @@
       <c r="W72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
+      <c r="X72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z72" s="40"/>
       <c r="AA72" s="40"/>
     </row>
@@ -6775,11 +7039,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -6832,8 +7096,12 @@
       <c r="W73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
+      <c r="X73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z73" s="40"/>
       <c r="AA73" s="40"/>
     </row>
@@ -6853,11 +7121,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -6910,8 +7178,12 @@
       <c r="W74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
+      <c r="X74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z74" s="40"/>
       <c r="AA74" s="40"/>
     </row>
@@ -6935,7 +7207,7 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>20</v>
@@ -6988,8 +7260,12 @@
       <c r="W75" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
+      <c r="X75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z75" s="40"/>
       <c r="AA75" s="40"/>
     </row>
@@ -7009,11 +7285,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -7066,8 +7342,12 @@
       <c r="W76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
+      <c r="X76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z76" s="40"/>
       <c r="AA76" s="40"/>
     </row>
@@ -7091,7 +7371,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>21</v>
@@ -7144,8 +7424,12 @@
       <c r="W77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
+      <c r="X77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z77" s="40"/>
       <c r="AA77" s="40"/>
     </row>
@@ -7165,11 +7449,11 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>20</v>
@@ -7222,8 +7506,12 @@
       <c r="W78" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
+      <c r="X78" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Z78" s="40"/>
       <c r="AA78" s="40"/>
     </row>
@@ -7247,7 +7535,7 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>20</v>
@@ -7300,8 +7588,12 @@
       <c r="W79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
+      <c r="X79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z79" s="40"/>
       <c r="AA79" s="40"/>
     </row>
@@ -7325,7 +7617,7 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>20</v>
@@ -7378,8 +7670,12 @@
       <c r="W80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
+      <c r="X80" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y80" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z80" s="40"/>
       <c r="AA80" s="40"/>
     </row>
@@ -7403,7 +7699,7 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>20</v>
@@ -7456,8 +7752,12 @@
       <c r="W81" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
+      <c r="X81" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y81" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Z81" s="40"/>
       <c r="AA81" s="40"/>
     </row>

--- a/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1690,7 +1690,9 @@
       <c r="Y7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Z7" s="33"/>
+      <c r="Z7" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1713,7 +1715,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1772,7 +1774,9 @@
       <c r="Y8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="40"/>
+      <c r="Z8" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA8" s="40"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1795,7 +1799,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>21</v>
@@ -1854,7 +1858,9 @@
       <c r="Y9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="39"/>
+      <c r="Z9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA9" s="40"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1877,7 +1883,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1936,7 +1942,9 @@
       <c r="Y10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="40"/>
+      <c r="Z10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA10" s="40"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1959,7 +1967,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>20</v>
@@ -2018,7 +2026,9 @@
       <c r="Y11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="40"/>
+      <c r="Z11" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA11" s="40"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2041,7 +2051,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -2100,7 +2110,9 @@
       <c r="Y12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="40"/>
+      <c r="Z12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA12" s="40"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2123,7 +2135,7 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2182,7 +2194,9 @@
       <c r="Y13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="40"/>
+      <c r="Z13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA13" s="40"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2205,7 +2219,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2264,7 +2278,9 @@
       <c r="Y14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="40"/>
+      <c r="Z14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA14" s="40"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2287,7 +2303,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>21</v>
@@ -2346,7 +2362,9 @@
       <c r="Y15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="40"/>
+      <c r="Z15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA15" s="40"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2369,7 +2387,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2428,7 +2446,9 @@
       <c r="Y16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="40"/>
+      <c r="Z16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA16" s="40"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2451,7 +2471,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2510,7 +2530,9 @@
       <c r="Y17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="40"/>
+      <c r="Z17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA17" s="40"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2533,7 +2555,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2592,7 +2614,9 @@
       <c r="Y18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z18" s="40"/>
+      <c r="Z18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA18" s="40"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2615,7 +2639,7 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2674,7 +2698,9 @@
       <c r="Y19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z19" s="40"/>
+      <c r="Z19" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA19" s="40"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2697,7 +2723,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2756,7 +2782,9 @@
       <c r="Y20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z20" s="40"/>
+      <c r="Z20" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA20" s="40"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2775,7 +2803,7 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
@@ -2838,7 +2866,9 @@
       <c r="Y21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="40"/>
+      <c r="Z21" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA21" s="40"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2861,7 +2891,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2920,7 +2950,9 @@
       <c r="Y22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z22" s="40"/>
+      <c r="Z22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA22" s="40"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2943,7 +2975,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -3002,7 +3034,9 @@
       <c r="Y23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z23" s="40"/>
+      <c r="Z23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA23" s="40"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3025,7 +3059,7 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -3084,7 +3118,9 @@
       <c r="Y24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z24" s="40"/>
+      <c r="Z24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA24" s="40"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3103,7 +3139,7 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
@@ -3166,7 +3202,9 @@
       <c r="Y25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z25" s="40"/>
+      <c r="Z25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA25" s="40"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3189,7 +3227,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -3248,7 +3286,9 @@
       <c r="Y26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z26" s="40"/>
+      <c r="Z26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA26" s="40"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3267,7 +3307,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
@@ -3330,7 +3370,9 @@
       <c r="Y27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z27" s="40"/>
+      <c r="Z27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA27" s="40"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3353,7 +3395,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3412,7 +3454,9 @@
       <c r="Y28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z28" s="40"/>
+      <c r="Z28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA28" s="40"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3435,7 +3479,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3494,7 +3538,9 @@
       <c r="Y29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z29" s="40"/>
+      <c r="Z29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA29" s="40"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3517,7 +3563,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -3576,7 +3622,9 @@
       <c r="Y30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="40"/>
+      <c r="Z30" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA30" s="40"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3599,7 +3647,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3658,7 +3706,9 @@
       <c r="Y31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z31" s="40"/>
+      <c r="Z31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3681,7 +3731,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3740,7 +3790,9 @@
       <c r="Y32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z32" s="40"/>
+      <c r="Z32" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3759,7 +3811,7 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
@@ -3822,7 +3874,9 @@
       <c r="Y33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z33" s="40"/>
+      <c r="Z33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3841,7 +3895,7 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
@@ -3904,7 +3958,9 @@
       <c r="Y34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z34" s="40"/>
+      <c r="Z34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA34" s="40"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3927,7 +3983,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3986,7 +4042,9 @@
       <c r="Y35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z35" s="40"/>
+      <c r="Z35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA35" s="40"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -4009,7 +4067,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -4068,7 +4126,9 @@
       <c r="Y36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z36" s="40"/>
+      <c r="Z36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA36" s="40"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4091,7 +4151,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -4150,7 +4210,9 @@
       <c r="Y37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z37" s="40"/>
+      <c r="Z37" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA37" s="40"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4173,7 +4235,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -4232,7 +4294,9 @@
       <c r="Y38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z38" s="40"/>
+      <c r="Z38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA38" s="40"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4251,7 +4315,7 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
@@ -4314,7 +4378,9 @@
       <c r="Y39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z39" s="40"/>
+      <c r="Z39" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4337,7 +4403,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -4396,7 +4462,9 @@
       <c r="Y40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z40" s="40"/>
+      <c r="Z40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4415,7 +4483,7 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
@@ -4478,7 +4546,9 @@
       <c r="Y41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z41" s="40"/>
+      <c r="Z41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA41" s="40"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4501,7 +4571,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -4560,7 +4630,9 @@
       <c r="Y42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z42" s="40"/>
+      <c r="Z42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4583,7 +4655,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4642,7 +4714,9 @@
       <c r="Y43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z43" s="40"/>
+      <c r="Z43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA43" s="40"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4665,7 +4739,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -4724,7 +4798,9 @@
       <c r="Y44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z44" s="40"/>
+      <c r="Z44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA44" s="40"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4743,7 +4819,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
@@ -4806,7 +4882,9 @@
       <c r="Y45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z45" s="40"/>
+      <c r="Z45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA45" s="40"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4829,7 +4907,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>21</v>
@@ -4888,7 +4966,9 @@
       <c r="Y46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z46" s="40"/>
+      <c r="Z46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA46" s="40"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4911,7 +4991,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4970,7 +5050,9 @@
       <c r="Y47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z47" s="40"/>
+      <c r="Z47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA47" s="40"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4989,7 +5071,7 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
@@ -5052,7 +5134,9 @@
       <c r="Y48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="40"/>
+      <c r="Z48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA48" s="40"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5075,7 +5159,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>21</v>
@@ -5134,7 +5218,9 @@
       <c r="Y49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z49" s="40"/>
+      <c r="Z49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA49" s="40"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5157,7 +5243,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>21</v>
@@ -5216,7 +5302,9 @@
       <c r="Y50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z50" s="40"/>
+      <c r="Z50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA50" s="40"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5235,7 +5323,7 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
@@ -5298,7 +5386,9 @@
       <c r="Y51" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z51" s="40"/>
+      <c r="Z51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA51" s="40"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5321,7 +5411,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -5380,7 +5470,9 @@
       <c r="Y52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z52" s="40"/>
+      <c r="Z52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5403,7 +5495,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -5462,7 +5554,9 @@
       <c r="Y53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z53" s="40"/>
+      <c r="Z53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA53" s="40"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5485,7 +5579,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -5544,7 +5638,9 @@
       <c r="Y54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z54" s="40"/>
+      <c r="Z54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA54" s="40"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5567,7 +5663,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -5626,7 +5722,9 @@
       <c r="Y55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z55" s="40"/>
+      <c r="Z55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA55" s="40"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5649,7 +5747,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -5708,7 +5806,9 @@
       <c r="Y56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="40"/>
+      <c r="Z56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA56" s="40"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5731,7 +5831,7 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -5790,7 +5890,9 @@
       <c r="Y57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z57" s="40"/>
+      <c r="Z57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5813,7 +5915,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5872,7 +5974,9 @@
       <c r="Y58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z58" s="40"/>
+      <c r="Z58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA58" s="40"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5891,7 +5995,7 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
@@ -5954,7 +6058,9 @@
       <c r="Y59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z59" s="40"/>
+      <c r="Z59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA59" s="40"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5977,7 +6083,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -6036,7 +6142,9 @@
       <c r="Y60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z60" s="40"/>
+      <c r="Z60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6059,7 +6167,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -6118,7 +6226,9 @@
       <c r="Y61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z61" s="40"/>
+      <c r="Z61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA61" s="40"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6141,7 +6251,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -6200,7 +6310,9 @@
       <c r="Y62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z62" s="40"/>
+      <c r="Z62" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA62" s="40"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6223,7 +6335,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -6282,7 +6394,9 @@
       <c r="Y63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z63" s="40"/>
+      <c r="Z63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA63" s="40"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6301,7 +6415,7 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
@@ -6364,7 +6478,9 @@
       <c r="Y64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z64" s="40"/>
+      <c r="Z64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA64" s="40"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6387,7 +6503,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -6446,7 +6562,9 @@
       <c r="Y65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z65" s="40"/>
+      <c r="Z65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA65" s="40"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6469,7 +6587,7 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -6528,7 +6646,9 @@
       <c r="Y66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="40"/>
+      <c r="Z66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA66" s="40"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6551,7 +6671,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -6610,7 +6730,9 @@
       <c r="Y67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z67" s="40"/>
+      <c r="Z67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA67" s="40"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6629,7 +6751,7 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
@@ -6692,7 +6814,9 @@
       <c r="Y68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z68" s="40"/>
+      <c r="Z68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA68" s="40"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6715,7 +6839,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>21</v>
@@ -6774,7 +6898,9 @@
       <c r="Y69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z69" s="40"/>
+      <c r="Z69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA69" s="40"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6793,7 +6919,7 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
@@ -6856,7 +6982,9 @@
       <c r="Y70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z70" s="40"/>
+      <c r="Z70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6875,7 +7003,7 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
@@ -6938,7 +7066,9 @@
       <c r="Y71" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z71" s="40"/>
+      <c r="Z71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA71" s="40"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6957,7 +7087,7 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
@@ -7020,7 +7150,9 @@
       <c r="Y72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z72" s="40"/>
+      <c r="Z72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA72" s="40"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7039,7 +7171,7 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
@@ -7102,7 +7234,9 @@
       <c r="Y73" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z73" s="40"/>
+      <c r="Z73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA73" s="40"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7121,7 +7255,7 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
@@ -7184,7 +7318,9 @@
       <c r="Y74" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z74" s="40"/>
+      <c r="Z74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA74" s="40"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -7207,7 +7343,7 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>20</v>
@@ -7266,7 +7402,9 @@
       <c r="Y75" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z75" s="40"/>
+      <c r="Z75" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA75" s="40"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -7285,7 +7423,7 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
@@ -7348,7 +7486,9 @@
       <c r="Y76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z76" s="40"/>
+      <c r="Z76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA76" s="40"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -7371,7 +7511,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>21</v>
@@ -7430,7 +7570,9 @@
       <c r="Y77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z77" s="40"/>
+      <c r="Z77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA77" s="40"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -7449,7 +7591,7 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
@@ -7512,7 +7654,9 @@
       <c r="Y78" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z78" s="40"/>
+      <c r="Z78" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA78" s="40"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -7535,7 +7679,7 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>20</v>
@@ -7594,7 +7738,9 @@
       <c r="Y79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z79" s="40"/>
+      <c r="Z79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA79" s="40"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -7617,7 +7763,7 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>20</v>
@@ -7676,7 +7822,9 @@
       <c r="Y80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z80" s="40"/>
+      <c r="Z80" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA80" s="40"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -7699,7 +7847,7 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>20</v>
@@ -7758,7 +7906,9 @@
       <c r="Y81" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z81" s="40"/>
+      <c r="Z81" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA81" s="40"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
